--- a/biology/Botanique/Cassia/Cassia.xlsx
+++ b/biology/Botanique/Cassia/Cassia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cassia est un genre de la famille des Caesalpiniaceae dans la classification classique de Cronquist (1981)[2], ou de la famille des Fabaceae, sous-famille des Caesalpinioideae  dans la classification phylogénétique APG II (2003)[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cassia est un genre de la famille des Caesalpiniaceae dans la classification classique de Cronquist (1981), ou de la famille des Fabaceae, sous-famille des Caesalpinioideae  dans la classification phylogénétique APG II (2003).
 Des espèces du genre Cassia sont des plantes qui servent d'aliment aux larves de certaines espèces de lépidoptères, parmi lesquelles Endoclita malabaricus.
 </t>
         </is>
@@ -512,7 +524,9 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans la classification classique, le genre Cassia comprenait 650 espèces (sens lato sensu), mais, par la suite, les genres Chamaecrista et Senna ont été créés et le genre Cassia (stricto sensu) a été réduit à une trentaine d'espèces, voire moins.
 Dans la classification de Cronquist (1981) des angiospermes, le genre Cassia était classé comme suit :
@@ -545,9 +559,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon GRIN            (25 novembre 2014)[4] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon GRIN            (25 novembre 2014) :
 Cassia abbreviata Oliv.
 Cassia afrofistula Brenan
 Cassia aubrevillei Pellegr.
@@ -569,7 +585,7 @@
 Cassia roxburghii DC.
 Cassia sieberiana DC.
 Cassia spruceana Benth.
-Selon The Plant List            (25 novembre 2014)[5] :
+Selon The Plant List            (25 novembre 2014) :
 Cassia abbreviata Oliv.
 Cassia aciphylla A.Gray
 Cassia afrofistula Brenan
@@ -661,7 +677,7 @@
 Cassia trachypus Mart. ex Benth.
 Cassia venusta F.Muell.
 Liste d'espèces selon Tropicos y compris des synonymes
-Selon Tropicos                                           (25 novembre 2014)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (25 novembre 2014) (Attention liste brute contenant possiblement des synonymes) :
 Cassia abbreviata Oliv.
 Cassia absus L.
 Cassia acacalis Royle
@@ -1721,7 +1737,8 @@
 Cassia siliquosa F. Aresch.
 Cassia silvestris Vell.
 Cassia simplex (Standl.) Standl.
-Cassia simplicifolia D</t>
+Cassia simplicifolia Desv.
+Cass</t>
         </is>
       </c>
     </row>
@@ -1749,7 +1766,9 @@
           <t>Expression</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>L'expression « Je vous passe la casse. Passez-moi le séné », signifiant « Rendez-moi un service, je vous en rendrai un autre », tire son origine des espèces des genres Cassia (la casse) et Senna (le séné).</t>
         </is>
@@ -1779,7 +1798,9 @@
           <t>Remarque</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Attention à ne pas confondre ce genre avec l'espèce Cinnamomum aromaticum, le cannelier de Chine, de la famille des Lauraceae qui est parfois appelée « cassia » ou « quassia ».</t>
         </is>
